--- a/Command_put/src/test.xlsx
+++ b/Command_put/src/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,13 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>人畜無害サーバー
 プラグイン制作</t>
   </si>
   <si>
-    <t>PluginName: </t>
+    <t>PluginName: dadada</t>
   </si>
   <si>
     <t>Ver</t>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>その他</t>
+  </si>
+  <si>
+    <t>dafa</t>
+  </si>
+  <si>
+    <t>dafaa</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,21 +299,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F6"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.8409090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.6875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.1306818181818"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0"/>
+      <c r="E1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -315,10 +322,19 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0"/>
+      <c r="E3" s="0"/>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
@@ -335,6 +351,21 @@
       </c>
       <c r="F6" s="7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -343,7 +374,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -364,14 +395,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="14.1306818181818"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -391,13 +420,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -418,14 +444,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.1306818181818"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -445,13 +469,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
